--- a/Dash/grafico_artistas_mais_ouvidos_data.xlsx
+++ b/Dash/grafico_artistas_mais_ouvidos_data.xlsx
@@ -282,7 +282,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -315,6 +315,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -379,7 +386,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -402,11 +409,11 @@
   </sheetPr>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F43" activeCellId="0" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.01953125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.03125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.56"/>
